--- a/CONES.xlsx
+++ b/CONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbe\OneDrive\Área de Trabalho\SENAC\Senac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71823E5E-CA16-4DE2-AD7E-8C1BF015D434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C231F-855D-47AA-B922-0EDE69C972E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DFEFA52-7EC9-4B8B-92BC-36D76E2F2E1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>KASKETE BISCOITO 75G BARION</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>TOTAL DE VENDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARACUJA </t>
+  </si>
+  <si>
+    <t>MARACUJA</t>
+  </si>
+  <si>
+    <t>LIMÃO</t>
   </si>
 </sst>
 </file>
@@ -432,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25234A9-0942-4777-A612-FC96EA535683}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -454,20 +463,20 @@
       <c r="B1" s="1">
         <v>21.3</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <f>B1</f>
         <v>21.3</v>
       </c>
       <c r="D1" s="2">
-        <f>SUM(C1:C7)</f>
-        <v>99.54</v>
+        <f>SUM(C1:C9)</f>
+        <v>109.54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2">
-        <f>D9-D1+D15</f>
-        <v>205.45999999999998</v>
+        <f>D12-D1+D18+D20</f>
+        <v>285.45999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,7 +486,7 @@
       <c r="B2" s="1">
         <v>39.6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>B2</f>
         <v>39.6</v>
       </c>
@@ -489,7 +498,7 @@
       <c r="B3" s="1">
         <v>3.7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>4*B3</f>
         <v>14.8</v>
       </c>
@@ -497,8 +506,8 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <f>D9+D15</f>
-        <v>305</v>
+        <f>D12+D18+D20</f>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -508,7 +517,7 @@
       <c r="B4" s="1">
         <v>8.65</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>B4</f>
         <v>8.65</v>
       </c>
@@ -520,7 +529,7 @@
       <c r="B5" s="1">
         <v>7.3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>B5</f>
         <v>7.3</v>
       </c>
@@ -532,7 +541,7 @@
       <c r="B6" s="1">
         <v>7.49</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>B6</f>
         <v>7.49</v>
       </c>
@@ -544,79 +553,135 @@
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>4*B7</f>
         <v>0.4</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <f>5*B9</f>
-        <v>50</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(C9:C13)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <f>5*B10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <f>3*B11</f>
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <f>2*B12</f>
-        <v>20</v>
+      <c r="C12" s="1">
+        <f>5*B12</f>
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12:C16)</f>
+        <v>195</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <f>5*B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <f>3*B14</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <f>2*B15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <f>3*B13</f>
+      <c r="C16" s="1">
+        <f>3*B16</f>
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
         <f>110</f>
         <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <f>5*B20</f>
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20:C21)</f>
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <f>4*B21</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
